--- a/biology/Médecine/Université_d'État_de_médecine_de_Bucovine/Université_d'État_de_médecine_de_Bucovine.xlsx
+++ b/biology/Médecine/Université_d'État_de_médecine_de_Bucovine/Université_d'État_de_médecine_de_Bucovine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université d'État de médecine de Bucovine est un établissement d’enseignement supérieur de Tchernivtsi, qui a récemment célébré le 65e anniversaire de sa fondation.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un établissement multidisciplinaire de quatre niveaux d'accréditation figurant dans le registre général de l'Organisation mondiale de la santé, et de la Grande Charte des universités, qui offre une formation professionnelle dans le système progressif d'éducation. 
 Les diplômés de l’université d'État de médecine de Bucovine se forment dans le domaine médical, pharmaceutique, économique, éducatif, scientifique, social et culturel. 
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En octobre 1944, date de la prise par la force de cette région à la Roumanie, par l'URSS, le deuxième institut médical d'État de Kiev a été appelé à poursuivre son travail dans la ville de Tchernivtsi. À la fin de novembre 1944, un deuxième Institut médical d'État de Kiev a été rebaptisé Institut d'État de médecine de Bucovine à Cernăuţi.
 L’histoire de la Bucovine est étroitement liée aux noms des recteurs de l'Institut de médecine, des professeurs renommés comme  D. S. Lovlia (1945-1951), M. B. Mankovskyi (1951-1954), M. M. Kovaliov (1954-1963), A. D . Youkhymets (1963-1974), V. K. Patratii (1974-1993), V. P. Pichak (1993-2010) ou T. M. Boytchouk. 
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,16 +599,15 @@
           <t>Administration universitaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recteur : Boytchouk Taras Mykolaiovytch, docteur es sciences médicales, professeur des Universités
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Recteur : Boytchouk Taras Mykolaiovytch, docteur es sciences médicales, professeur des Universités
 Vice-recteur du travail scientifico-pédagogique : Heruch Igor Vassiliovytch, candidat es sciences médicales, maître de conférences
 Vice-recteur du travail scientifique et des relations internationales : Ivachtchouk Olexandr Ivanovytch, docteur es sciences médicales, professeur des universités
 Vice-recteur du travail médical : Iftodiy Adrian Gueiorguiovytch, docteur es sciences médicales, professeur des universités
-Vice-recteur du travail scientifico-pédagogique : Zoriy Nina Ivanovna, candidat es sciences philosophiques, maître de conférences.
-Personnel
-Actuellement à l’Université travaillent des cadres pédagogiques, dont 75 docteur ès sciences médicales et 321 candidats ès sciences médicales, 187 maîtres de conférences. 166 spécialistes ont la catégorie de certification médicale supérieure, 54,  la première, 48, la deuxième.
-</t>
+Vice-recteur du travail scientifico-pédagogique : Zoriy Nina Ivanovna, candidat es sciences philosophiques, maître de conférences.</t>
         </is>
       </c>
     </row>
@@ -602,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,12 +632,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Formation des étrangers</t>
+          <t>Administration universitaire</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aujourd'hui, 4 374 étudiants font leurs études à l'université, y compris 675 étrangers venus de 32 pays. La formation des étrangers a débuté en 1994, et en 2004, a commencé l’enseignement aux étudiants étrangers en anglais. Le nombre d'étudiants étrangers originaires d'Inde, de Somalie, du Nigeria, du Ghana, du Pakistan, d'Éthiopie, du Soudan, d'Arabie saoudite, de Bulgarie, des États-Unis et d'autres pays qui étudient à l’université d'État de médecine de Bucovine augmente d’année en année.
+          <t>Personnel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actuellement à l’Université travaillent des cadres pédagogiques, dont 75 docteur ès sciences médicales et 321 candidats ès sciences médicales, 187 maîtres de conférences. 166 spécialistes ont la catégorie de certification médicale supérieure, 54,  la première, 48, la deuxième.
 </t>
         </is>
       </c>
@@ -633,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,10 +669,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Formation des étrangers</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aujourd'hui, 4 374 étudiants font leurs études à l'université, y compris 675 étrangers venus de 32 pays. La formation des étrangers a débuté en 1994, et en 2004, a commencé l’enseignement aux étudiants étrangers en anglais. Le nombre d'étudiants étrangers originaires d'Inde, de Somalie, du Nigeria, du Ghana, du Pakistan, d'Éthiopie, du Soudan, d'Arabie saoudite, de Bulgarie, des États-Unis et d'autres pays qui étudient à l’université d'État de médecine de Bucovine augmente d’année en année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Structure</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Faculté de médecine no 1 (http://mf1.bsmu.edu.ua/) (doyen : Vassili Moskaliouk, docteur es sciences médicales, Professeur des universités)
 Faculté de médecine no 2 (http://www.bsmu.edu.ua/divisions/index.asp?div=d2u) (doyen : Volodimir Gloubotchenko, candidat es sciences médicales, maître de conférences)
@@ -663,31 +719,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Travail de traitement et de prévention</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">On[Qui ?] utilise les cabinets et les laboratoires universitaires pour tous les types d’enseignement et de travaux pratiques, ainsi que les installations médicales de traitement et de prévention, les stations épidémiologiques et sanitaires de la ville et de la région.
 Les chaires cliniques de l’université sont situées aux 27 bases cliniques : 17 hôpitaux  de subordination régionale et 10 hôpitaux de subordination de la ville.
@@ -696,45 +754,13 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Activités internationales</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’université d'État de médecine de Bucovine occupe une place importante dans l’arène européenne[réf. nécessaire]. Aujourd'hui, l’Université est membre reconnu[Par qui ?] de l'Association internationale des universités, de l'Organisation mondiale de la santé, de l'Association des universités de la région des Carpates et de l’Association Européenne des universités de la Grande Charte.
-Le Département des relations internationales s’occupe du développement, de l'expansion et du renforcement des relations internationales et de l'autorité de l’Université dans la communauté mondiale.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -749,12 +775,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Coopérations</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’ Hôpital Klagenfurt (Autriche), la Faculté de médecine de l’Université de Montpellier 1 (France), l’Hôpital Ängelholm (Suède), l'Université de Lübeck, l'université Humboldt de Berlin (Allemagne), l'Université Charles de Prague (République Tchèque), l’Académie d'État de médecine d’Akmola (Kazakhstan), l’Université médicale et pharmaceutique « Nicolae Testemițanu » de Chisinau (Moldavie), l'Université « Étienne-le-Grand » de Suceava (Roumanie), l’Université de médecine de Varsovie, l'université jagellonne de Cracovie, l’Université de médecine de Lublin (Pologne), l’Université d'État de médecine de Minsk, l’Université d'État de médecine de Grodno, l'Université d'État de médecine de Vitebsk (Biélorussie), par exemple, collaborent avec l'Université de Bucovine.
+          <t>Activités internationales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’université d'État de médecine de Bucovine occupe une place importante dans l’arène européenne[réf. nécessaire]. Aujourd'hui, l’Université est membre reconnu[Par qui ?] de l'Association internationale des universités, de l'Organisation mondiale de la santé, de l'Association des universités de la région des Carpates et de l’Association Européenne des universités de la Grande Charte.
+Le Département des relations internationales s’occupe du développement, de l'expansion et du renforcement des relations internationales et de l'autorité de l’Université dans la communauté mondiale.
 </t>
         </is>
       </c>
@@ -765,7 +794,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,12 +809,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>La société scientifique d'étudiants</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a plus de soixante ans que la Société scientifique d'étudiants a été établie. La Société scientifique d'étudiants depuis sa fondation effectue des travaux coordonnés sur l'intérêt des étudiants à participer aux travaux de recherche aux chaires universitaires, et de participer à des réunions et des congrès scientifiques, des conférences et colloques scientifiques, aux olympiades et aux concours, ainsi qu’aux séminaires et expositions, à établir des relations internationales, de coopérer avec les établissements d'enseignement et de recherche d'Ukraine et d'autres pays.
+          <t>Coopérations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ Hôpital Klagenfurt (Autriche), la Faculté de médecine de l’Université de Montpellier 1 (France), l’Hôpital Ängelholm (Suède), l'Université de Lübeck, l'université Humboldt de Berlin (Allemagne), l'Université Charles de Prague (République Tchèque), l’Académie d'État de médecine d’Akmola (Kazakhstan), l’Université médicale et pharmaceutique « Nicolae Testemițanu » de Chisinau (Moldavie), l'Université « Étienne-le-Grand » de Suceava (Roumanie), l’Université de médecine de Varsovie, l'université jagellonne de Cracovie, l’Université de médecine de Lublin (Pologne), l’Université d'État de médecine de Minsk, l’Université d'État de médecine de Grodno, l'Université d'État de médecine de Vitebsk (Biélorussie), par exemple, collaborent avec l'Université de Bucovine.
 </t>
         </is>
       </c>
@@ -796,7 +827,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -811,13 +842,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sport, loisirs et repos</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'éducation physique et un mode de vie sain, effectué selon le slogan de l'Université « L'éducation physique, c’est la santé de la nation ». Sont organisés à l'Université des compétitions au niveau de la ville et de la région. Les professeurs de la Chaire d'éducation physique effectuent des entraînements avec des équipes universitaires de basketball, volleyball, lutte gréco-romaine, d’athlétisme et d’autres. L’ Université a créé les conditions pour le repos des étudiants, la réhabilitation et des classes de prévention des maladies, y compris l'organisation du tourisme sportif. Les étudiants ont la possibilité de passer leurs vacances d'été dans le camp d’été de sport et de remise en forme dans le village de Repoujyntsi, dans la région de Cernăuţi.
-Le Palais académique de 700 places, qui appartient à l’Université, a créé des conditions pour organiser des concerts, événements artistiques, rencontres récréatives, classes d’activités artistiques amateurs. Au Palais académique fonctionne l’ensemble folklorique amateur de chansons et de danses Trembita. À l’'Université, il y a un musée historique médical, situé aussi dans le Palais Académique. Depuis 2002, ce musée est membre de l'Association Européenne des Musées d'Histoire de Médecine et de Pharmacie.
+          <t>La société scientifique d'étudiants</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a plus de soixante ans que la Société scientifique d'étudiants a été établie. La Société scientifique d'étudiants depuis sa fondation effectue des travaux coordonnés sur l'intérêt des étudiants à participer aux travaux de recherche aux chaires universitaires, et de participer à des réunions et des congrès scientifiques, des conférences et colloques scientifiques, aux olympiades et aux concours, ainsi qu’aux séminaires et expositions, à établir des relations internationales, de coopérer avec les établissements d'enseignement et de recherche d'Ukraine et d'autres pays.
 </t>
         </is>
       </c>
@@ -828,7 +860,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -843,12 +875,48 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Sport, loisirs et repos</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'éducation physique et un mode de vie sain, effectué selon le slogan de l'Université « L'éducation physique, c’est la santé de la nation ». Sont organisés à l'Université des compétitions au niveau de la ville et de la région. Les professeurs de la Chaire d'éducation physique effectuent des entraînements avec des équipes universitaires de basketball, volleyball, lutte gréco-romaine, d’athlétisme et d’autres. L’ Université a créé les conditions pour le repos des étudiants, la réhabilitation et des classes de prévention des maladies, y compris l'organisation du tourisme sportif. Les étudiants ont la possibilité de passer leurs vacances d'été dans le camp d’été de sport et de remise en forme dans le village de Repoujyntsi, dans la région de Cernăuţi.
+Le Palais académique de 700 places, qui appartient à l’Université, a créé des conditions pour organiser des concerts, événements artistiques, rencontres récréatives, classes d’activités artistiques amateurs. Au Palais académique fonctionne l’ensemble folklorique amateur de chansons et de danses Trembita. À l’'Université, il y a un musée historique médical, situé aussi dans le Palais Académique. Depuis 2002, ce musée est membre de l'Association Européenne des Musées d'Histoire de Médecine et de Pharmacie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Université_d'État_de_médecine_de_Bucovine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_d%27%C3%89tat_de_m%C3%A9decine_de_Bucovine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Classements</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suivant les résultats du système de classement de l’activité et de l’évaluation qualitative des universités (classement Webometrics) l'université est classée parmi les premières des établissements d'enseignement supérieur d'Ukraine. En 2012, dans le système de classement national de l'enseignement supérieur en Ukraine (Top-200) elle est placée onzième parmi les meilleures écoles de médecine du pays[2].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant les résultats du système de classement de l’activité et de l’évaluation qualitative des universités (classement Webometrics) l'université est classée parmi les premières des établissements d'enseignement supérieur d'Ukraine. En 2012, dans le système de classement national de l'enseignement supérieur en Ukraine (Top-200) elle est placée onzième parmi les meilleures écoles de médecine du pays.
 L’université d'État de médecine de Bucovine occupe la 3 186e place dans le monde (parmi les 20 000 universités), le dépôt électronique de l'université occupe la 785e place dans le classement mondial « Web Classement des dépôts » et la 1re place parmi les universités de médecine d'Ukraine. Selon les indicateurs de base de données scientométriques Scopus, la plus grande base de données de citations et de résumés issus de recherches bibliographiques et de sites Internet de qualité, en avril 2012  elle occupe la 38e place parmi toutes les universités d’Ukraine et la 8e place parmi les établissements d’enseignement supérieur de médecine.
 </t>
         </is>
